--- a/biology/Botanique/Giacomo_Antonio_Cortuso/Giacomo_Antonio_Cortuso.xlsx
+++ b/biology/Botanique/Giacomo_Antonio_Cortuso/Giacomo_Antonio_Cortuso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giacomo Antonio Cortuso, né à Padoue en 1513, mort dans sa ville natale en 1603, est un botaniste italien.
-De 1590 à sa mort, il occupa la charge de conservateur du jardin botanique de Padoue. Troisième dans cette fonction, il succéda à Melchiorre Guilandino[1].
-Il publia en 1591, sous le titre de L'orto dei semplici di Padova, un inventaire des 1 170 plantes alors cultivées dans le jardin botanique, parmi lesquelles figurait la pomme de terre[2].
-Son contemporain, le botaniste Pierandrea Mattioli, lui dédia sous le nom de Cortusa, une Primulacée rare, que Linné renomma Cortusa matthioli[1].
+De 1590 à sa mort, il occupa la charge de conservateur du jardin botanique de Padoue. Troisième dans cette fonction, il succéda à Melchiorre Guilandino.
+Il publia en 1591, sous le titre de L'orto dei semplici di Padova, un inventaire des 1 170 plantes alors cultivées dans le jardin botanique, parmi lesquelles figurait la pomme de terre.
+Son contemporain, le botaniste Pierandrea Mattioli, lui dédia sous le nom de Cortusa, une Primulacée rare, que Linné renomma Cortusa matthioli.
 </t>
         </is>
       </c>
